--- a/natmiOut/OldD7/LR-pairs_lrc2p/Dag1-Lama4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Dag1-Lama4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.3161470491648</v>
+        <v>18.76192366666666</v>
       </c>
       <c r="H2">
-        <v>18.3161470491648</v>
+        <v>56.285771</v>
       </c>
       <c r="I2">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="J2">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>76.2156261118496</v>
+        <v>79.45695600000001</v>
       </c>
       <c r="N2">
-        <v>76.2156261118496</v>
+        <v>238.370868</v>
       </c>
       <c r="O2">
-        <v>0.310311846951756</v>
+        <v>0.3098915743290338</v>
       </c>
       <c r="P2">
-        <v>0.310311846951756</v>
+        <v>0.3098915743290338</v>
       </c>
       <c r="Q2">
-        <v>1395.976615308802</v>
+        <v>1490.765343257692</v>
       </c>
       <c r="R2">
-        <v>1395.976615308802</v>
+        <v>13416.88808931923</v>
       </c>
       <c r="S2">
-        <v>0.03843040455990467</v>
+        <v>0.03788304109642748</v>
       </c>
       <c r="T2">
-        <v>0.03843040455990467</v>
+        <v>0.03788304109642748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.3161470491648</v>
+        <v>18.76192366666666</v>
       </c>
       <c r="H3">
-        <v>18.3161470491648</v>
+        <v>56.285771</v>
       </c>
       <c r="I3">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="J3">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>164.045098733571</v>
+        <v>164.182683</v>
       </c>
       <c r="N3">
-        <v>164.045098733571</v>
+        <v>492.548049</v>
       </c>
       <c r="O3">
-        <v>0.6679094585760167</v>
+        <v>0.6403319819152736</v>
       </c>
       <c r="P3">
-        <v>0.6679094585760167</v>
+        <v>0.6403319819152735</v>
       </c>
       <c r="Q3">
-        <v>3004.674151098845</v>
+        <v>3080.382965834531</v>
       </c>
       <c r="R3">
-        <v>3004.674151098845</v>
+        <v>27723.44669251078</v>
       </c>
       <c r="S3">
-        <v>0.08271688933118237</v>
+        <v>0.07827809723053983</v>
       </c>
       <c r="T3">
-        <v>0.08271688933118237</v>
+        <v>0.07827809723053981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.3161470491648</v>
+        <v>18.76192366666666</v>
       </c>
       <c r="H4">
-        <v>18.3161470491648</v>
+        <v>56.285771</v>
       </c>
       <c r="I4">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="J4">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.3490604738579</v>
+        <v>0.07725</v>
       </c>
       <c r="N4">
-        <v>5.3490604738579</v>
+        <v>0.23175</v>
       </c>
       <c r="O4">
-        <v>0.02177869447222728</v>
+        <v>0.0003012841835637129</v>
       </c>
       <c r="P4">
-        <v>0.02177869447222728</v>
+        <v>0.0003012841835637129</v>
       </c>
       <c r="Q4">
-        <v>97.97417821405645</v>
+        <v>1.44935860325</v>
       </c>
       <c r="R4">
-        <v>97.97417821405645</v>
+        <v>13.04422742925</v>
       </c>
       <c r="S4">
-        <v>0.00269717075766165</v>
+        <v>3.683082101331723E-05</v>
       </c>
       <c r="T4">
-        <v>0.00269717075766165</v>
+        <v>3.683082101331723E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.4464677514245</v>
+        <v>18.76192366666666</v>
       </c>
       <c r="H5">
-        <v>38.4464677514245</v>
+        <v>56.285771</v>
       </c>
       <c r="I5">
-        <v>0.2599554482462873</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="J5">
-        <v>0.2599554482462873</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.2156261118496</v>
+        <v>12.68555166666667</v>
       </c>
       <c r="N5">
-        <v>76.2156261118496</v>
+        <v>38.056655</v>
       </c>
       <c r="O5">
-        <v>0.310311846951756</v>
+        <v>0.04947515957212899</v>
       </c>
       <c r="P5">
-        <v>0.310311846951756</v>
+        <v>0.04947515957212898</v>
       </c>
       <c r="Q5">
-        <v>2930.221611463853</v>
+        <v>238.0053520395561</v>
       </c>
       <c r="R5">
-        <v>2930.221611463853</v>
+        <v>2142.048168356005</v>
       </c>
       <c r="S5">
-        <v>0.08066725527047704</v>
+        <v>0.006048146056830915</v>
       </c>
       <c r="T5">
-        <v>0.08066725527047704</v>
+        <v>0.006048146056830913</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.4464677514245</v>
+        <v>38.59812166666666</v>
       </c>
       <c r="H6">
-        <v>38.4464677514245</v>
+        <v>115.794365</v>
       </c>
       <c r="I6">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="J6">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>164.045098733571</v>
+        <v>79.45695600000001</v>
       </c>
       <c r="N6">
-        <v>164.045098733571</v>
+        <v>238.370868</v>
       </c>
       <c r="O6">
-        <v>0.6679094585760167</v>
+        <v>0.3098915743290338</v>
       </c>
       <c r="P6">
-        <v>0.6679094585760167</v>
+        <v>0.3098915743290338</v>
       </c>
       <c r="Q6">
-        <v>6306.954598239486</v>
+        <v>3066.88925495098</v>
       </c>
       <c r="R6">
-        <v>6306.954598239486</v>
+        <v>27602.00329455882</v>
       </c>
       <c r="S6">
-        <v>0.1736267026920635</v>
+        <v>0.07793519765465635</v>
       </c>
       <c r="T6">
-        <v>0.1736267026920635</v>
+        <v>0.07793519765465635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.4464677514245</v>
+        <v>38.59812166666666</v>
       </c>
       <c r="H7">
-        <v>38.4464677514245</v>
+        <v>115.794365</v>
       </c>
       <c r="I7">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="J7">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.3490604738579</v>
+        <v>164.182683</v>
       </c>
       <c r="N7">
-        <v>5.3490604738579</v>
+        <v>492.548049</v>
       </c>
       <c r="O7">
-        <v>0.02177869447222728</v>
+        <v>0.6403319819152736</v>
       </c>
       <c r="P7">
-        <v>0.02177869447222728</v>
+        <v>0.6403319819152735</v>
       </c>
       <c r="Q7">
-        <v>205.6524810085972</v>
+        <v>6337.143173993764</v>
       </c>
       <c r="R7">
-        <v>205.6524810085972</v>
+        <v>57034.28856594388</v>
       </c>
       <c r="S7">
-        <v>0.005661490283746783</v>
+        <v>0.1610382588917298</v>
       </c>
       <c r="T7">
-        <v>0.005661490283746783</v>
+        <v>0.1610382588917298</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.01573633717561</v>
+        <v>38.59812166666666</v>
       </c>
       <c r="H8">
-        <v>6.01573633717561</v>
+        <v>115.794365</v>
       </c>
       <c r="I8">
-        <v>0.04067534750325723</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="J8">
-        <v>0.04067534750325723</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>76.2156261118496</v>
+        <v>0.07725</v>
       </c>
       <c r="N8">
-        <v>76.2156261118496</v>
+        <v>0.23175</v>
       </c>
       <c r="O8">
-        <v>0.310311846951756</v>
+        <v>0.0003012841835637129</v>
       </c>
       <c r="P8">
-        <v>0.310311846951756</v>
+        <v>0.0003012841835637129</v>
       </c>
       <c r="Q8">
-        <v>458.4931114616439</v>
+        <v>2.98170489875</v>
       </c>
       <c r="R8">
-        <v>458.4931114616439</v>
+        <v>26.83534408875</v>
       </c>
       <c r="S8">
-        <v>0.01262204220914025</v>
+        <v>7.57705092405277E-05</v>
       </c>
       <c r="T8">
-        <v>0.01262204220914025</v>
+        <v>7.57705092405277E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.01573633717561</v>
+        <v>38.59812166666666</v>
       </c>
       <c r="H9">
-        <v>6.01573633717561</v>
+        <v>115.794365</v>
       </c>
       <c r="I9">
-        <v>0.04067534750325723</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="J9">
-        <v>0.04067534750325723</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>164.045098733571</v>
+        <v>12.68555166666667</v>
       </c>
       <c r="N9">
-        <v>164.045098733571</v>
+        <v>38.056655</v>
       </c>
       <c r="O9">
-        <v>0.6679094585760167</v>
+        <v>0.04947515957212899</v>
       </c>
       <c r="P9">
-        <v>0.6679094585760167</v>
+        <v>0.04947515957212898</v>
       </c>
       <c r="Q9">
-        <v>986.8520613871036</v>
+        <v>489.6384666387861</v>
       </c>
       <c r="R9">
-        <v>986.8520613871036</v>
+        <v>4406.746199749075</v>
       </c>
       <c r="S9">
-        <v>0.02716744932829187</v>
+        <v>0.01244259818485901</v>
       </c>
       <c r="T9">
-        <v>0.02716744932829187</v>
+        <v>0.012442598184859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.01573633717561</v>
+        <v>6.691683333333334</v>
       </c>
       <c r="H10">
-        <v>6.01573633717561</v>
+        <v>20.07505</v>
       </c>
       <c r="I10">
-        <v>0.04067534750325723</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="J10">
-        <v>0.04067534750325723</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.3490604738579</v>
+        <v>79.45695600000001</v>
       </c>
       <c r="N10">
-        <v>5.3490604738579</v>
+        <v>238.370868</v>
       </c>
       <c r="O10">
-        <v>0.02177869447222728</v>
+        <v>0.3098915743290338</v>
       </c>
       <c r="P10">
-        <v>0.02177869447222728</v>
+        <v>0.3098915743290338</v>
       </c>
       <c r="Q10">
-        <v>32.17853746233676</v>
+        <v>531.7007881826</v>
       </c>
       <c r="R10">
-        <v>32.17853746233676</v>
+        <v>4785.307093643401</v>
       </c>
       <c r="S10">
-        <v>0.000885855965825112</v>
+        <v>0.01351147777939893</v>
       </c>
       <c r="T10">
-        <v>0.000885855965825112</v>
+        <v>0.01351147777939893</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.1180211475334</v>
+        <v>6.691683333333334</v>
       </c>
       <c r="H11">
-        <v>85.1180211475334</v>
+        <v>20.07505</v>
       </c>
       <c r="I11">
-        <v>0.5755247396017068</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="J11">
-        <v>0.5755247396017068</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.2156261118496</v>
+        <v>164.182683</v>
       </c>
       <c r="N11">
-        <v>76.2156261118496</v>
+        <v>492.548049</v>
       </c>
       <c r="O11">
-        <v>0.310311846951756</v>
+        <v>0.6403319819152736</v>
       </c>
       <c r="P11">
-        <v>0.310311846951756</v>
+        <v>0.6403319819152735</v>
       </c>
       <c r="Q11">
-        <v>6487.323275160913</v>
+        <v>1098.65852345305</v>
       </c>
       <c r="R11">
-        <v>6487.323275160913</v>
+        <v>9887.926711077451</v>
       </c>
       <c r="S11">
-        <v>0.1785921449122341</v>
+        <v>0.02791889829150513</v>
       </c>
       <c r="T11">
-        <v>0.1785921449122341</v>
+        <v>0.02791889829150512</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.1180211475334</v>
+        <v>6.691683333333334</v>
       </c>
       <c r="H12">
-        <v>85.1180211475334</v>
+        <v>20.07505</v>
       </c>
       <c r="I12">
-        <v>0.5755247396017068</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="J12">
-        <v>0.5755247396017068</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>164.045098733571</v>
+        <v>0.07725</v>
       </c>
       <c r="N12">
-        <v>164.045098733571</v>
+        <v>0.23175</v>
       </c>
       <c r="O12">
-        <v>0.6679094585760167</v>
+        <v>0.0003012841835637129</v>
       </c>
       <c r="P12">
-        <v>0.6679094585760167</v>
+        <v>0.0003012841835637129</v>
       </c>
       <c r="Q12">
-        <v>13963.1941831533</v>
+        <v>0.5169325375</v>
       </c>
       <c r="R12">
-        <v>13963.1941831533</v>
+        <v>4.652392837500001</v>
       </c>
       <c r="S12">
-        <v>0.384398417224479</v>
+        <v>1.313618984420404E-05</v>
       </c>
       <c r="T12">
-        <v>0.384398417224479</v>
+        <v>1.313618984420404E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.1180211475334</v>
+        <v>6.691683333333334</v>
       </c>
       <c r="H13">
-        <v>85.1180211475334</v>
+        <v>20.07505</v>
       </c>
       <c r="I13">
-        <v>0.5755247396017068</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="J13">
-        <v>0.5755247396017068</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.3490604738579</v>
+        <v>12.68555166666667</v>
       </c>
       <c r="N13">
-        <v>5.3490604738579</v>
+        <v>38.056655</v>
       </c>
       <c r="O13">
-        <v>0.02177869447222728</v>
+        <v>0.04947515957212899</v>
       </c>
       <c r="P13">
-        <v>0.02177869447222728</v>
+        <v>0.04947515957212898</v>
       </c>
       <c r="Q13">
-        <v>455.3014425332718</v>
+        <v>84.88769466197223</v>
       </c>
       <c r="R13">
-        <v>455.3014425332718</v>
+        <v>763.9892519577501</v>
       </c>
       <c r="S13">
-        <v>0.01253417746499374</v>
+        <v>0.002157149708372716</v>
       </c>
       <c r="T13">
-        <v>0.01253417746499374</v>
+        <v>0.002157149708372715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>89.42491666666666</v>
+      </c>
+      <c r="H14">
+        <v>268.27475</v>
+      </c>
+      <c r="I14">
+        <v>0.5826613975855819</v>
+      </c>
+      <c r="J14">
+        <v>0.5826613975855818</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>79.45695600000001</v>
+      </c>
+      <c r="N14">
+        <v>238.370868</v>
+      </c>
+      <c r="O14">
+        <v>0.3098915743290338</v>
+      </c>
+      <c r="P14">
+        <v>0.3098915743290338</v>
+      </c>
+      <c r="Q14">
+        <v>7105.431668887</v>
+      </c>
+      <c r="R14">
+        <v>63948.885019983</v>
+      </c>
+      <c r="S14">
+        <v>0.1805618577985511</v>
+      </c>
+      <c r="T14">
+        <v>0.180561857798551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>89.42491666666666</v>
+      </c>
+      <c r="H15">
+        <v>268.27475</v>
+      </c>
+      <c r="I15">
+        <v>0.5826613975855819</v>
+      </c>
+      <c r="J15">
+        <v>0.5826613975855818</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>164.182683</v>
+      </c>
+      <c r="N15">
+        <v>492.548049</v>
+      </c>
+      <c r="O15">
+        <v>0.6403319819152736</v>
+      </c>
+      <c r="P15">
+        <v>0.6403319819152735</v>
+      </c>
+      <c r="Q15">
+        <v>14682.02274538475</v>
+      </c>
+      <c r="R15">
+        <v>132138.2047084627</v>
+      </c>
+      <c r="S15">
+        <v>0.3730967275014989</v>
+      </c>
+      <c r="T15">
+        <v>0.3730967275014987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>89.42491666666666</v>
+      </c>
+      <c r="H16">
+        <v>268.27475</v>
+      </c>
+      <c r="I16">
+        <v>0.5826613975855819</v>
+      </c>
+      <c r="J16">
+        <v>0.5826613975855818</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.07725</v>
+      </c>
+      <c r="N16">
+        <v>0.23175</v>
+      </c>
+      <c r="O16">
+        <v>0.0003012841835637129</v>
+      </c>
+      <c r="P16">
+        <v>0.0003012841835637129</v>
+      </c>
+      <c r="Q16">
+        <v>6.9080748125</v>
+      </c>
+      <c r="R16">
+        <v>62.1726733125</v>
+      </c>
+      <c r="S16">
+        <v>0.000175546663465664</v>
+      </c>
+      <c r="T16">
+        <v>0.0001755466634656639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>89.42491666666666</v>
+      </c>
+      <c r="H17">
+        <v>268.27475</v>
+      </c>
+      <c r="I17">
+        <v>0.5826613975855819</v>
+      </c>
+      <c r="J17">
+        <v>0.5826613975855818</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.68555166666667</v>
+      </c>
+      <c r="N17">
+        <v>38.056655</v>
+      </c>
+      <c r="O17">
+        <v>0.04947515957212899</v>
+      </c>
+      <c r="P17">
+        <v>0.04947515957212898</v>
+      </c>
+      <c r="Q17">
+        <v>1134.404400662361</v>
+      </c>
+      <c r="R17">
+        <v>10209.63960596125</v>
+      </c>
+      <c r="S17">
+        <v>0.02882726562206636</v>
+      </c>
+      <c r="T17">
+        <v>0.02882726562206635</v>
       </c>
     </row>
   </sheetData>
